--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -14,40 +14,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
-    <t>operator</t>
+    <t>Operator</t>
   </si>
   <si>
-    <t>sampleid</t>
+    <t>SampleID</t>
   </si>
   <si>
-    <t>sampleportion</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>rawdatapathway</t>
+    <t>LaboratoryOperatingMode</t>
   </si>
   <si>
-    <t>date</t>
+    <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>result</t>
+    <t>CriticalProduct</t>
   </si>
   <si>
-    <t>criticalapparatuscriticalsoftware</t>
+    <t>RawDataPathway</t>
   </si>
   <si>
-    <t>criticalproduct</t>
+    <t>Result</t>
   </si>
   <si>
-    <t>laboratoryoperatingmode</t>
+    <t>SamplePortion</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#date</t>
   </si>
   <si>
-    <t>#date</t>
+    <t>#float</t>
   </si>
 </sst>
 </file>
@@ -141,19 +141,19 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Operator</t>
   </si>
@@ -35,19 +35,46 @@
     <t>RawDataPathway</t>
   </si>
   <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
     <t>#string</t>
   </si>
   <si>
     <t>#date</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#float,  unit:mg</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#PriseEssai</t>
+  </si>
+  <si>
+    <t>#Resultat</t>
   </si>
 </sst>
 </file>
@@ -92,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,6 +183,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -14,61 +14,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>SamplePortion</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float,  unit:mg</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#PriseEssai</t>
@@ -159,22 +159,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>

--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -41,6 +44,9 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -50,31 +56,37 @@
     <t>#float,  unit:mg</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#PriseEssai</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t>#Prise d'essai</t>
   </si>
   <si>
     <t>#Resultat</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,63 +165,81 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,13 +41,61 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>SamplePortion</t>
   </si>
   <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>ResultUnit</t>
+  </si>
+  <si>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Résultat</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
   </si>
   <si>
     <t>#date</t>
@@ -53,40 +104,85 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float,  unit:mg</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#Prise d'essai</t>
-  </si>
-  <si>
-    <t>#Resultat</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t>#float</t>
+  </si>
+  <si>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># ex: 2.5</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
   </si>
 </sst>
 </file>
@@ -131,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,75 +267,190 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/starchpolarimetric.xlsx
+++ b/template_pegase_v1/starchpolarimetric.xlsx
@@ -41,21 +41,21 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>SamplePortionUnit</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>ResultUnit</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -83,21 +83,21 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Résultat</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
     <t># Commentaire</t>
   </si>
   <si>
-    <t># Prise d'essai</t>
-  </si>
-  <si>
-    <t># Unité de mesure de la prise d’essai</t>
-  </si>
-  <si>
-    <t># Résultat</t>
-  </si>
-  <si>
-    <t># Unité du résultat</t>
-  </si>
-  <si>
     <t>#date</t>
   </si>
   <si>
@@ -134,15 +134,15 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre décimal ou NA</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: 2.5</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: 2.5</t>
-  </si>
-  <si>
-    <t># ex: mg</t>
-  </si>
-  <si>
-    <t># 409.935 ou NA</t>
-  </si>
-  <si>
-    <t># ex: mg/ml</t>
   </si>
 </sst>
 </file>
@@ -350,16 +350,16 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
@@ -397,16 +397,16 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5">
